--- a/usc/condisp/design.xlsx
+++ b/usc/condisp/design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gits\files\usc\condisp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2487F0BF-96D1-406C-8E61-FB3E1B61C630}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFAC743-BF9D-4B24-9F14-0CC17B1394E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7E4BE9DE-D570-44A7-84E1-F0114F7CB007}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>bt</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>go use gimp (can open psd files)</t>
+  </si>
+  <si>
+    <t>bt side to knob cent</t>
+  </si>
+  <si>
+    <t>bt top to knob cent</t>
+  </si>
+  <si>
+    <t>knob r</t>
+  </si>
+  <si>
+    <t>knobs</t>
   </si>
 </sst>
 </file>
@@ -162,16 +174,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712AB5A1-FCFD-4F65-BB88-EF8A26470C4B}">
-  <dimension ref="P1:V37"/>
+  <dimension ref="P1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,11 +577,11 @@
     <col min="18" max="18" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="16:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="2">
         <f>36/62</f>
         <v>0.58064516129032262</v>
       </c>
@@ -596,7 +609,7 @@
         <v>15</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q11" si="0">ROUND(P3*$Q$1,0)</f>
+        <f t="shared" ref="Q3:Q16" si="0">ROUND(P3*$Q$1,0)</f>
         <v>9</v>
       </c>
       <c r="R3" t="s">
@@ -712,259 +725,363 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T11" s="3"/>
     </row>
+    <row r="12" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>33</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>38</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>15</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" s="3"/>
+    </row>
     <row r="15" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P15" t="s">
+      <c r="P15">
+        <v>18</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>23</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q19" t="s">
         <v>13</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S19" t="s">
         <v>16</v>
       </c>
-      <c r="V15" s="2" t="s">
+      <c r="V19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P16" t="s">
+    <row r="20" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
         <v>14</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q20" t="s">
         <v>15</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S20" s="2">
         <v>13</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T20" s="2">
+        <v>599</v>
+      </c>
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="S21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P22" s="2">
         <v>117</v>
       </c>
-      <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="S17" t="s">
-        <v>17</v>
-      </c>
-      <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P18" s="4">
+      <c r="Q22" s="2">
+        <v>599</v>
+      </c>
+      <c r="R22" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22">
+        <f>P22-$S$20</f>
+        <v>104</v>
+      </c>
+      <c r="T22">
+        <f>Q22-$T$20</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P23" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>19</v>
+      </c>
+      <c r="V23" s="4"/>
+    </row>
+    <row r="24" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="V24" s="4"/>
+    </row>
+    <row r="25" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P25" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>635</v>
+      </c>
+      <c r="R25" t="s">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f>P25-$S$20</f>
+        <v>28</v>
+      </c>
+      <c r="T25">
+        <f>Q25-$T$20</f>
+        <v>36</v>
+      </c>
+      <c r="V25" s="4"/>
+    </row>
+    <row r="26" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P26" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>36</v>
+      </c>
+      <c r="V26" s="4"/>
+    </row>
+    <row r="27" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="V27" s="4"/>
+    </row>
+    <row r="28" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P28" s="2">
+        <v>86</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>635</v>
+      </c>
+      <c r="S28">
+        <f>P28-$S$20</f>
+        <v>73</v>
+      </c>
+      <c r="T28">
+        <f>Q28-$T$20</f>
+        <v>36</v>
+      </c>
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P29" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>36</v>
+      </c>
+      <c r="V29" s="4"/>
+    </row>
+    <row r="30" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="V30" s="4"/>
+    </row>
+    <row r="31" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P31" s="2">
+        <v>131</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>635</v>
+      </c>
+      <c r="S31">
+        <f>P31-$S$20</f>
+        <v>118</v>
+      </c>
+      <c r="T31">
+        <f>Q31-$T$20</f>
+        <v>36</v>
+      </c>
+      <c r="V31" s="4"/>
+    </row>
+    <row r="32" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P32" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>36</v>
+      </c>
+      <c r="V32" s="4"/>
+    </row>
+    <row r="33" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="V33" s="4"/>
+    </row>
+    <row r="34" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P34" s="2">
+        <v>176</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>635</v>
+      </c>
+      <c r="S34">
+        <f>P34-$S$20</f>
+        <v>163</v>
+      </c>
+      <c r="T34">
+        <f>Q34-$T$20</f>
+        <v>36</v>
+      </c>
+      <c r="V34" s="4"/>
+    </row>
+    <row r="35" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P35" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>36</v>
+      </c>
+      <c r="V35" s="4"/>
+    </row>
+    <row r="36" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="V36" s="4"/>
+    </row>
+    <row r="37" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P37" s="2">
+        <v>67</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>688</v>
+      </c>
+      <c r="R37" t="s">
+        <v>11</v>
+      </c>
+      <c r="S37">
+        <f>P37-$S$20</f>
+        <v>54</v>
+      </c>
+      <c r="T37">
+        <f>Q37-$T$20</f>
         <v>89</v>
       </c>
-      <c r="Q18" s="4">
-        <v>117</v>
-      </c>
-      <c r="R18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S18">
-        <f>P18-$S$16</f>
-        <v>76</v>
-      </c>
-      <c r="T18">
-        <f>Q18-$T$16</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="2"/>
-    </row>
-    <row r="19" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P19" s="4">
+      <c r="V37" s="4"/>
+    </row>
+    <row r="38" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P38" s="2">
+        <v>29</v>
+      </c>
+      <c r="Q38" s="2">
         <v>19</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="V38" s="4"/>
+    </row>
+    <row r="39" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="V39" s="4"/>
+    </row>
+    <row r="40" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P40" s="2">
+        <v>157</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>688</v>
+      </c>
+      <c r="S40">
+        <f>P40-$S$20</f>
+        <v>144</v>
+      </c>
+      <c r="T40">
+        <f>Q40-$T$20</f>
+        <v>89</v>
+      </c>
+      <c r="V40" s="4"/>
+    </row>
+    <row r="41" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P41" s="2">
+        <v>29</v>
+      </c>
+      <c r="Q41" s="2">
         <v>19</v>
       </c>
-      <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="V20" s="2"/>
-    </row>
-    <row r="21" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P21" s="4">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>153</v>
-      </c>
-      <c r="R21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <f t="shared" ref="S21:S36" si="1">P21-$S$16</f>
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <f t="shared" ref="T21:T36" si="2">Q21-$T$16</f>
-        <v>36</v>
-      </c>
-      <c r="V21" s="2"/>
-    </row>
-    <row r="22" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P22" s="4">
-        <v>36</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>36</v>
-      </c>
-      <c r="V22" s="2"/>
-    </row>
-    <row r="23" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="V23" s="2"/>
-    </row>
-    <row r="24" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P24" s="4">
-        <v>58</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>153</v>
-      </c>
-      <c r="S24">
+      <c r="V41" s="4"/>
+    </row>
+    <row r="43" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P43" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>612.5</v>
+      </c>
+      <c r="R43" t="s">
+        <v>29</v>
+      </c>
+      <c r="S43">
+        <f t="shared" ref="S41:S46" si="1">P43-$S$20</f>
+        <v>8.5</v>
+      </c>
+      <c r="T43">
+        <f t="shared" ref="T41:T46" si="2">Q43-$T$20</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="44" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P44" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="46" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P46" s="2">
+        <v>230.5</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>612.5</v>
+      </c>
+      <c r="S46">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="T24">
+        <v>217.5</v>
+      </c>
+      <c r="T46">
         <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="V24" s="2"/>
-    </row>
-    <row r="25" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P25" s="4">
-        <v>36</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>36</v>
-      </c>
-      <c r="V25" s="2"/>
-    </row>
-    <row r="26" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="V26" s="2"/>
-    </row>
-    <row r="27" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P27" s="4">
-        <v>103</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>153</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="V27" s="2"/>
-    </row>
-    <row r="28" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P28" s="4">
-        <v>36</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>36</v>
-      </c>
-      <c r="V28" s="2"/>
-    </row>
-    <row r="29" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="V29" s="2"/>
-    </row>
-    <row r="30" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P30" s="4">
-        <v>148</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>153</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="1"/>
-        <v>135</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="V30" s="2"/>
-    </row>
-    <row r="31" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P31" s="4">
-        <v>36</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>36</v>
-      </c>
-      <c r="V31" s="2"/>
-    </row>
-    <row r="32" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="V32" s="2"/>
-    </row>
-    <row r="33" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P33" s="4">
-        <v>39</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>206</v>
-      </c>
-      <c r="R33" t="s">
-        <v>11</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="2"/>
-        <v>89</v>
-      </c>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P34" s="4">
-        <v>29</v>
-      </c>
-      <c r="Q34" s="4">
-        <v>19</v>
-      </c>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P36" s="4">
-        <v>129</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>206</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="2"/>
-        <v>89</v>
-      </c>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="P37" s="4">
-        <v>29</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>19</v>
-      </c>
-      <c r="V37" s="2"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="47" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P47" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="T1:T11"/>
-    <mergeCell ref="V15:V37"/>
+    <mergeCell ref="V19:V41"/>
+    <mergeCell ref="T1:T14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
